--- a/src/verification/FuehrungsUTF/verification ptn.xlsx
+++ b/src/verification/FuehrungsUTF/verification ptn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Datenbox9000\ZHAW\Faecher\PA BA\PA\PA\src\verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Datenbox9000\ZHAW\Faecher\PA BA\PA\PA\src\verification\FuehrungsUTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1813579-FA19-4665-A186-A9565779E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3C076-8423-4442-814C-B68A89AF96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{07F159AF-C143-491F-8A9E-0AABAF70F5ED}"/>
+    <workbookView xWindow="47895" yWindow="-10230" windowWidth="19410" windowHeight="20985" xr2:uid="{07F159AF-C143-491F-8A9E-0AABAF70F5ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>n</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>ptn</t>
+  </si>
+  <si>
+    <t>ITAE_PSO_matlab_correct_limit</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1412AF6C-49C2-4ABA-833C-1E318DBEB65D}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,14 +471,15 @@
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -515,8 +519,11 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,8 +563,11 @@
       <c r="M3">
         <v>6.4128615019752894E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>6.4128615019752894E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -597,8 +607,11 @@
       <c r="M4">
         <v>3.5716782601346399E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3.5716782601346399E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -638,8 +651,11 @@
       <c r="M5">
         <v>2.25027601333972E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>2.25027601333972E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -679,8 +695,11 @@
       <c r="M6">
         <v>1.8505153297800898E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1.8505153297800898E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -720,8 +739,11 @@
       <c r="M7">
         <v>0.59252620265671596</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0.59252620265671596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -761,8 +783,11 @@
       <c r="M8">
         <v>0.363960940486591</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0.363960940486591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -802,8 +827,11 @@
       <c r="M9">
         <v>0.23791086348406601</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0.23791086348406601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -843,8 +871,11 @@
       <c r="M10">
         <v>0.186934900031303</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0.186934900031303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -884,8 +915,11 @@
       <c r="M11">
         <v>1.86680576540537</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1.86680576540537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -925,8 +959,11 @@
       <c r="M12">
         <v>1.3559303682444801</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>1.3559303682444801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -966,8 +1003,11 @@
       <c r="M13">
         <v>1.00483744894845</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>1.00483744894845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1007,8 +1047,11 @@
       <c r="M14">
         <v>0.80346662313769901</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0.80346662313769901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1048,8 +1091,11 @@
       <c r="M15">
         <v>4.6958499764966701</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>4.6958499764966701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1089,8 +1135,11 @@
       <c r="M16">
         <v>4.4920997745834903</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>4.4920997745834903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1130,8 +1179,11 @@
       <c r="M17">
         <v>4.3938977260637602</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>4.3938977260637602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1171,8 +1223,11 @@
       <c r="M18">
         <v>4.2128511832263396</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>4.2128511832263396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1212,8 +1267,11 @@
       <c r="M19">
         <v>9.8261841476782905</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>9.8261841476782905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1253,8 +1311,11 @@
       <c r="M20">
         <v>9.6996490830162507</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>9.6996490830162507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1294,8 +1355,11 @@
       <c r="M21">
         <v>9.4981045514708597</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>9.4981045514708597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1335,8 +1399,11 @@
       <c r="M22">
         <v>9.1023613304167306</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>9.1023613304167306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1376,8 +1443,11 @@
       <c r="M23">
         <v>16.607304775500399</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>16.607304775500399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1417,8 +1487,11 @@
       <c r="M24">
         <v>16.409770255828001</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>16.409770255828001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1458,8 +1531,11 @@
       <c r="M25">
         <v>16.075586625071999</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>16.075586625071999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1497,6 +1573,9 @@
         <v>15.4099635909299</v>
       </c>
       <c r="M26">
+        <v>15.419847905864099</v>
+      </c>
+      <c r="N26">
         <v>15.419847905864099</v>
       </c>
     </row>
